--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
   <si>
     <t>index|索引</t>
   </si>
@@ -170,6 +170,9 @@
     <t>限时返利--v4_cjj</t>
   </si>
   <si>
+    <t>21,22,23,24,25,26,27,28,29</t>
+  </si>
+  <si>
     <t>id|</t>
   </si>
   <si>
@@ -361,40 +364,82 @@
     <t>"shop_bay","jing_bi",</t>
   </si>
   <si>
+    <t>swjl1</t>
+  </si>
+  <si>
+    <t>美的智能烤箱</t>
+  </si>
+  <si>
     <t>在商城中购买3次998元</t>
   </si>
   <si>
     <t>4000000,900,</t>
   </si>
   <si>
+    <t>swjl2</t>
+  </si>
+  <si>
+    <t>肩颈按摩仪</t>
+  </si>
+  <si>
     <t>在商城中购买3次498元</t>
   </si>
   <si>
     <t>2000000,450,</t>
   </si>
   <si>
+    <t>swjl3</t>
+  </si>
+  <si>
+    <t>豪华坚果礼包</t>
+  </si>
+  <si>
     <t>在商城中购买3次198元</t>
   </si>
   <si>
     <t>800000,150,</t>
   </si>
   <si>
+    <t>swjl4</t>
+  </si>
+  <si>
+    <t>玉米热狗肠20支</t>
+  </si>
+  <si>
     <t>在商城中购买3次98元</t>
   </si>
   <si>
     <t>400000,70,</t>
   </si>
   <si>
+    <t>swjl5</t>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30袋</t>
+  </si>
+  <si>
     <t>在商城中购买3次50元</t>
   </si>
   <si>
     <t>350000,50,</t>
   </si>
   <si>
+    <t>swjl6</t>
+  </si>
+  <si>
+    <t>超舒适浴巾1条</t>
+  </si>
+  <si>
     <t>在商城中购买3次30元</t>
   </si>
   <si>
     <t>220000,30,</t>
+  </si>
+  <si>
+    <t>swjl7</t>
+  </si>
+  <si>
+    <t>棉签100支</t>
   </si>
   <si>
     <r>
@@ -476,9 +521,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -520,14 +565,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,54 +615,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +633,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,17 +641,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,7 +664,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,10 +694,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -725,31 +770,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,127 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +951,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,15 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -960,35 +1005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,16 +1023,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,133 +1070,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1186,7 +1231,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,6 +1240,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
@@ -1732,7 +1777,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1906,7 +1951,7 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1914,13 +1959,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1935,10 +1983,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1967,61 +2015,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2032,22 +2080,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -2065,22 +2113,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2100,22 +2148,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -2133,22 +2181,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2166,22 +2214,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2199,22 +2247,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2233,22 +2281,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2260,22 +2308,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2287,22 +2335,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2317,19 +2365,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2341,22 +2389,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2368,22 +2416,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2395,22 +2443,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2422,22 +2470,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2449,22 +2497,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2476,22 +2524,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2503,22 +2551,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2530,22 +2578,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2557,22 +2605,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2587,636 +2635,694 @@
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
       <c r="B22" s="6">
         <v>1000640</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>91</v>
+      <c r="D22" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>93</v>
       </c>
+      <c r="G22" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="H22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="M22" s="13"/>
-      <c r="O22" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
       <c r="B23" s="6">
         <v>1000641</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="M23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
       <c r="B24" s="6">
         <v>1000642</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>97</v>
+      <c r="D24" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>98</v>
+      <c r="F24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
-      <c r="A25" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:11">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
       <c r="B25" s="6">
         <v>1000643</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>99</v>
+      <c r="D25" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>100</v>
+      <c r="F25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:9">
-      <c r="A26" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:11">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
       <c r="B26" s="6">
         <v>1000644</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>101</v>
+      <c r="D26" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>102</v>
+      <c r="F26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:9">
-      <c r="A27" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:11">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
       <c r="B27" s="6">
         <v>1000645</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>103</v>
+      <c r="D27" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>104</v>
+      <c r="F27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:9">
-      <c r="A28" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:11">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
       <c r="B28" s="6">
         <v>1000646</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>105</v>
+      <c r="D28" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>106</v>
+      <c r="F28" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" s="17"/>
+      <c r="J28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
-      <c r="A29" s="11"/>
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
       <c r="B29" s="6">
         <v>1000647</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>107</v>
+      <c r="D29" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>108</v>
+      <c r="F29" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="17"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
-      <c r="A30" s="11"/>
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
       <c r="B30" s="6">
         <v>1000648</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>109</v>
+      <c r="D30" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>110</v>
+      <c r="F30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="17"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:15">
-      <c r="A31" s="11"/>
-      <c r="D31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="17"/>
-      <c r="M31" s="13"/>
-      <c r="O31" s="13"/>
+      <c r="M31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:15">
-      <c r="A32" s="11"/>
-      <c r="D32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="D32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="17"/>
-      <c r="M32" s="13"/>
-      <c r="O32" s="13"/>
+      <c r="M32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="11"/>
-      <c r="D33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="D33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="17"/>
-      <c r="M33" s="13"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="11"/>
-      <c r="D34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="D34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
-      <c r="A35" s="11"/>
-      <c r="D35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="17"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:9">
-      <c r="A36" s="11"/>
-      <c r="D36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:9">
-      <c r="A37" s="11"/>
-      <c r="D37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="D37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="11"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="11"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="11"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="11"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="11"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="11"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="11"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="11"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="11"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="11"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="11"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="11"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="11"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="11"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="11"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="11"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="11"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="11"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="19"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="11"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="19"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="11"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="19"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="11"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="11"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="19"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="11"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="19"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="11"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="19"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="11"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="19"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="11"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="11"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="11"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="11"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="19"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="11"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="11"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="11"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="11"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="19"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="11"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="19"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="11"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="11"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="19"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="11"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="19"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="11"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="19"/>
       <c r="L91" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="11"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="19"/>
       <c r="L92" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="11"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="19"/>
       <c r="L93" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="11"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="19"/>
       <c r="L94" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="11"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="11"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="11"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="11"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="19"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="11"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="19"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="11"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="19"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="11"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="19"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="11"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="19"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="11"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="19"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="11"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="19"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="11"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="11"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="19"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="11"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="19"/>
     </row>
   </sheetData>

--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -253,7 +253,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>在3D捕鱼中用3000及以上炮倍捕获1只欢乐券BOSS</t>
+    <t>在3D捕鱼中用3000及以上炮倍捕获1只欢乐券boss</t>
   </si>
   <si>
     <t>"jing_bi",</t>
@@ -268,7 +268,7 @@
     <t>50000</t>
   </si>
   <si>
-    <t>在3D捕鱼中用3000及以上炮倍捕获3只欢乐券BOSS</t>
+    <t>在3D捕鱼中用3000及以上炮倍捕获3只欢乐券boss</t>
   </si>
   <si>
     <t>10000,</t>
@@ -520,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -564,8 +564,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,31 +594,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,30 +611,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,17 +633,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,17 +657,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -770,43 +770,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,115 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,8 +958,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,32 +979,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,22 +1014,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,10 +1058,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,133 +1070,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1986,7 +1986,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -253,7 +253,7 @@
     <t>10000</t>
   </si>
   <si>
-    <t>在3D捕鱼中用3000及以上炮倍捕获1只欢乐券boss</t>
+    <t>在3D捕鱼用3000及以上炮倍捕获1只欢乐券boss</t>
   </si>
   <si>
     <t>"jing_bi",</t>
@@ -268,7 +268,7 @@
     <t>50000</t>
   </si>
   <si>
-    <t>在3D捕鱼中用3000及以上炮倍捕获3只欢乐券boss</t>
+    <t>在3D捕鱼用3000及以上炮倍捕获3只欢乐券boss</t>
   </si>
   <si>
     <t>10000,</t>
@@ -520,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -564,37 +564,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -609,26 +594,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,47 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,12 +648,58 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -770,25 +770,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,67 +842,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,61 +902,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,41 +951,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,6 +980,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1037,31 +1052,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,133 +1070,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1986,7 +1986,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
   <si>
     <t>index|索引</t>
   </si>
@@ -80,52 +80,58 @@
     <t>act_mfhf</t>
   </si>
   <si>
+    <t>mfhf_bg_1</t>
+  </si>
+  <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
+    <t>act_mfhf_cjj</t>
+  </si>
+  <si>
+    <t>奖励金币_cjj</t>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
+  </si>
+  <si>
+    <t>hhfl_bg_1</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_mfhf_byam</t>
+  </si>
+  <si>
     <t>hlfl_bg_1</t>
   </si>
   <si>
-    <t>奖励金币</t>
-  </si>
-  <si>
-    <t>act_mfhf_cjj</t>
-  </si>
-  <si>
-    <t>奖励金币_cjj</t>
-  </si>
-  <si>
-    <t>act_lgfl_normal</t>
-  </si>
-  <si>
-    <t>hhfl_bg_1</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_normal</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_mfhf_byam</t>
-  </si>
-  <si>
     <t>奖励话费_byam</t>
   </si>
   <si>
     <t>act_ymfl</t>
+  </si>
+  <si>
+    <t>ymfl_bg_1</t>
   </si>
   <si>
     <t>月末返利</t>
@@ -520,12 +526,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,23 +564,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,9 +621,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,24 +659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,38 +676,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,13 +782,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,145 +926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,16 +967,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -974,7 +986,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,8 +1020,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,51 +1064,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,138 +1082,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1263,7 +1275,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1586,8 +1599,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1645,7 +1658,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1666,10 +1679,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -1683,10 +1696,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -1700,10 +1713,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -1717,10 +1730,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -1737,28 +1750,28 @@
       <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>8</v>
+      <c r="C8" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1794,25 +1807,25 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1833,7 +1846,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1854,7 +1867,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1862,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -1881,7 +1894,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -1900,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
@@ -1919,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -1956,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1968,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1996,7 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
@@ -2015,61 +2028,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2080,22 +2093,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -2113,22 +2126,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2148,22 +2161,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -2181,22 +2194,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2214,22 +2227,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2247,22 +2260,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2281,22 +2294,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2308,22 +2321,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2335,22 +2348,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2365,19 +2378,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2389,22 +2402,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2416,22 +2429,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2443,22 +2456,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2470,22 +2483,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2497,22 +2510,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2524,22 +2537,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2551,22 +2564,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2578,22 +2591,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2605,22 +2618,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2635,19 +2648,19 @@
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2662,26 +2675,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="12"/>
@@ -2697,26 +2710,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M23" s="12"/>
       <c r="O23" s="12"/>
@@ -2732,26 +2745,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" s="12"/>
       <c r="O24" s="12"/>
@@ -2767,26 +2780,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:11">
@@ -2800,26 +2813,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:11">
@@ -2833,26 +2846,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:11">
@@ -2866,26 +2879,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
@@ -2899,19 +2912,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I29" s="17"/>
     </row>
@@ -2926,19 +2939,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I30" s="17"/>
     </row>
@@ -3219,70 +3232,70 @@
       <c r="A91" s="14"/>
       <c r="B91" s="19"/>
       <c r="L91" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="14"/>
       <c r="B92" s="19"/>
       <c r="L92" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="14"/>
       <c r="B93" s="19"/>
       <c r="L93" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="14"/>
       <c r="B94" s="19"/>
       <c r="L94" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="14"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="14"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="14"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2">

--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>index|索引</t>
   </si>
@@ -256,7 +256,7 @@
     <t>cheak_num|检查道具的数量</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>1</t>
   </si>
   <si>
     <t>在3D捕鱼用3000及以上炮倍捕获1只欢乐券boss</t>
@@ -271,7 +271,7 @@
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
-    <t>50000</t>
+    <t>3</t>
   </si>
   <si>
     <t>在3D捕鱼用3000及以上炮倍捕获3只欢乐券boss</t>
@@ -280,7 +280,7 @@
     <t>10000,</t>
   </si>
   <si>
-    <t>200000</t>
+    <t>2</t>
   </si>
   <si>
     <t>在3D捕鱼深海探险当前层数+2</t>
@@ -298,15 +298,9 @@
     <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>在西游消消乐中消除3个孙悟空</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>在西游消消乐中消除3个唐僧</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>在水浒消消乐中召唤出2个英雄</t>
   </si>
   <si>
@@ -334,22 +325,28 @@
     <t>在水果消消乐闯关中当前关卡数+5</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>在西游消消乐中消除9个孙悟空</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>在水浒消消乐中召唤出1个英雄</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
     <t>在龙王争霸中累计赢金30万</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>在龙王争霸中累计赢金60万</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>在苹果大战中连胜3局</t>
@@ -526,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -576,22 +573,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -606,8 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,31 +597,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,30 +618,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,15 +634,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,43 +779,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,115 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,16 +965,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,44 +1005,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,17 +1042,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,10 +1067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,133 +1079,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1599,7 +1596,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1996,10 +1993,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2227,7 +2224,7 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>73</v>
@@ -2260,10 +2257,10 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2294,10 +2291,10 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -2309,7 +2306,7 @@
         <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2321,10 +2318,10 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2336,7 +2333,7 @@
         <v>70</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2348,10 +2345,10 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2363,7 +2360,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2378,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2387,10 +2384,10 @@
         <v>62</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2402,10 +2399,10 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2417,7 +2414,7 @@
         <v>70</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2432,7 +2429,7 @@
         <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2441,10 +2438,10 @@
         <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2456,10 +2453,10 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2471,7 +2468,7 @@
         <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2483,10 +2480,10 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2498,7 +2495,7 @@
         <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2510,10 +2507,10 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2525,7 +2522,7 @@
         <v>67</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2537,10 +2534,10 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2552,7 +2549,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2567,7 +2564,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2579,7 +2576,7 @@
         <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2591,7 +2588,7 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>90</v>
@@ -2606,7 +2603,7 @@
         <v>70</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2618,10 +2615,10 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2630,10 +2627,10 @@
         <v>62</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2645,10 +2642,10 @@
         <v>1000638</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2660,7 +2657,7 @@
         <v>70</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2675,26 +2672,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="12"/>
@@ -2710,26 +2707,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="M23" s="12"/>
       <c r="O23" s="12"/>
@@ -2745,26 +2742,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="M24" s="12"/>
       <c r="O24" s="12"/>
@@ -2780,26 +2777,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:11">
@@ -2813,26 +2810,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:11">
@@ -2846,26 +2843,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:11">
@@ -2879,26 +2876,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
@@ -2912,19 +2909,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" s="17"/>
     </row>
@@ -2939,19 +2936,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" s="17"/>
     </row>
@@ -3232,70 +3229,70 @@
       <c r="A91" s="14"/>
       <c r="B91" s="19"/>
       <c r="L91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="14"/>
       <c r="B92" s="19"/>
       <c r="L92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M92" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="14"/>
       <c r="B93" s="19"/>
       <c r="L93" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M93" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="14"/>
       <c r="B94" s="19"/>
       <c r="L94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="14"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M95" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="14"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="14"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M97" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2">

--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
   <si>
     <t>index|索引</t>
   </si>
@@ -358,16 +358,16 @@
     <t>在商城中购买3次2498元</t>
   </si>
   <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-  </si>
-  <si>
-    <t>15000000,2400,</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_1",</t>
+  </si>
+  <si>
+    <t>15000000,2400,美的智能烤箱,</t>
   </si>
   <si>
     <t>"shop_bay","jing_bi",</t>
   </si>
   <si>
-    <t>swjl1</t>
+    <t>swjl_1</t>
   </si>
   <si>
     <t>美的智能烤箱</t>
@@ -376,10 +376,13 @@
     <t>在商城中购买3次998元</t>
   </si>
   <si>
-    <t>4000000,900,</t>
-  </si>
-  <si>
-    <t>swjl2</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
+  </si>
+  <si>
+    <t>4000000,900,肩颈按摩仪,</t>
+  </si>
+  <si>
+    <t>swjl_2</t>
   </si>
   <si>
     <t>肩颈按摩仪</t>
@@ -388,10 +391,13 @@
     <t>在商城中购买3次498元</t>
   </si>
   <si>
-    <t>2000000,450,</t>
-  </si>
-  <si>
-    <t>swjl3</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_3",</t>
+  </si>
+  <si>
+    <t>2000000,450,豪华坚果礼包,</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
   </si>
   <si>
     <t>豪华坚果礼包</t>
@@ -400,10 +406,13 @@
     <t>在商城中购买3次198元</t>
   </si>
   <si>
-    <t>800000,150,</t>
-  </si>
-  <si>
-    <t>swjl4</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_4",</t>
+  </si>
+  <si>
+    <t>800000,150,玉米热狗肠20支,</t>
+  </si>
+  <si>
+    <t>swjl_4</t>
   </si>
   <si>
     <t>玉米热狗肠20支</t>
@@ -412,10 +421,13 @@
     <t>在商城中购买3次98元</t>
   </si>
   <si>
-    <t>400000,70,</t>
-  </si>
-  <si>
-    <t>swjl5</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_5",</t>
+  </si>
+  <si>
+    <t>400000,70,卫龙亲嘴烧30袋,</t>
+  </si>
+  <si>
+    <t>swjl_5</t>
   </si>
   <si>
     <t>卫龙亲嘴烧30袋</t>
@@ -424,10 +436,13 @@
     <t>在商城中购买3次50元</t>
   </si>
   <si>
-    <t>350000,50,</t>
-  </si>
-  <si>
-    <t>swjl6</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_6",</t>
+  </si>
+  <si>
+    <t>350000,50,超舒适浴巾1条,</t>
+  </si>
+  <si>
+    <t>swjl_6</t>
   </si>
   <si>
     <t>超舒适浴巾1条</t>
@@ -436,10 +451,13 @@
     <t>在商城中购买3次30元</t>
   </si>
   <si>
-    <t>220000,30,</t>
-  </si>
-  <si>
-    <t>swjl7</t>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_7",</t>
+  </si>
+  <si>
+    <t>220000,30,棉签100支,</t>
+  </si>
+  <si>
+    <t>swjl_7</t>
   </si>
   <si>
     <t>棉签100支</t>
@@ -523,9 +541,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -573,6 +591,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -587,38 +635,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,16 +659,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -657,24 +706,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,21 +727,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -779,157 +797,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,6 +982,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -979,17 +1006,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,15 +1022,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,6 +1037,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,27 +1079,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,133 +1097,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1993,10 +2011,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2687,13 +2705,12 @@
         <v>96</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M22" s="12"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:15">
@@ -2713,22 +2730,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I23" s="14"/>
-      <c r="J23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="O23" s="12"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:15">
@@ -2742,31 +2758,30 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I24" s="14"/>
-      <c r="J24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="12"/>
+      <c r="L24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:11">
+    <row r="25" s="2" customFormat="1" spans="1:13">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2777,29 +2792,29 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I25" s="14"/>
-      <c r="J25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:11">
+      <c r="L25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:13">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2810,29 +2825,29 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I26" s="14"/>
-      <c r="J26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:11">
+      <c r="L26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:13">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2843,29 +2858,29 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="J27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:11">
+      <c r="L27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:13">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2876,26 +2891,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>122</v>
+      <c r="L28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
@@ -2909,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2918,7 +2933,7 @@
         <v>94</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>96</v>
@@ -2936,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2945,7 +2960,7 @@
         <v>94</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>96</v>
@@ -3229,70 +3244,70 @@
       <c r="A91" s="14"/>
       <c r="B91" s="19"/>
       <c r="L91" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="14"/>
       <c r="B92" s="19"/>
       <c r="L92" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="14"/>
       <c r="B93" s="19"/>
       <c r="L93" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="14"/>
       <c r="B94" s="19"/>
       <c r="L94" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="14"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="14"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="14"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:2">

--- a/config_6.22/activity_ty_task_config.xlsx
+++ b/config_6.22/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
   <si>
     <t>index|索引</t>
   </si>
@@ -361,16 +361,16 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_1",</t>
   </si>
   <si>
-    <t>15000000,2400,美的智能烤箱,</t>
+    <t>"15000000","2400","美的智能烤箱"</t>
   </si>
   <si>
     <t>"shop_bay","jing_bi",</t>
   </si>
   <si>
-    <t>swjl_1</t>
-  </si>
-  <si>
-    <t>美的智能烤箱</t>
+    <t>"swjl_1",</t>
+  </si>
+  <si>
+    <t>"美的智能烤箱",</t>
   </si>
   <si>
     <t>在商城中购买3次998元</t>
@@ -379,13 +379,13 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
   </si>
   <si>
-    <t>4000000,900,肩颈按摩仪,</t>
-  </si>
-  <si>
-    <t>swjl_2</t>
-  </si>
-  <si>
-    <t>肩颈按摩仪</t>
+    <t>"4000000","900","肩颈按摩仪"</t>
+  </si>
+  <si>
+    <t>"swjl_2",</t>
+  </si>
+  <si>
+    <t>"肩颈按摩仪",</t>
   </si>
   <si>
     <t>在商城中购买3次498元</t>
@@ -394,13 +394,13 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_3",</t>
   </si>
   <si>
-    <t>2000000,450,豪华坚果礼包,</t>
-  </si>
-  <si>
-    <t>swjl_3</t>
-  </si>
-  <si>
-    <t>豪华坚果礼包</t>
+    <t>"2000000","450","豪华坚果礼包"</t>
+  </si>
+  <si>
+    <t>"swjl_3",</t>
+  </si>
+  <si>
+    <t>"豪华坚果礼包",</t>
   </si>
   <si>
     <t>在商城中购买3次198元</t>
@@ -409,13 +409,13 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_4",</t>
   </si>
   <si>
-    <t>800000,150,玉米热狗肠20支,</t>
-  </si>
-  <si>
-    <t>swjl_4</t>
-  </si>
-  <si>
-    <t>玉米热狗肠20支</t>
+    <t>"800000","150","玉米热狗肠20支"</t>
+  </si>
+  <si>
+    <t>"swjl_4",</t>
+  </si>
+  <si>
+    <t>"玉米热狗肠20支",</t>
   </si>
   <si>
     <t>在商城中购买3次98元</t>
@@ -424,13 +424,13 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_5",</t>
   </si>
   <si>
-    <t>400000,70,卫龙亲嘴烧30袋,</t>
-  </si>
-  <si>
-    <t>swjl_5</t>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30袋</t>
+    <t>"400000","70","卫龙亲嘴烧30袋"</t>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+  </si>
+  <si>
+    <t>"卫龙亲嘴烧30袋",</t>
   </si>
   <si>
     <t>在商城中购买3次50元</t>
@@ -439,13 +439,13 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_6",</t>
   </si>
   <si>
-    <t>350000,50,超舒适浴巾1条,</t>
-  </si>
-  <si>
-    <t>swjl_6</t>
-  </si>
-  <si>
-    <t>超舒适浴巾1条</t>
+    <t>"350000","50","超舒适浴巾1条"</t>
+  </si>
+  <si>
+    <t>"swjl_6",</t>
+  </si>
+  <si>
+    <t>"超舒适浴巾1条",</t>
   </si>
   <si>
     <t>在商城中购买3次30元</t>
@@ -454,13 +454,13 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_7",</t>
   </si>
   <si>
-    <t>220000,30,棉签100支,</t>
-  </si>
-  <si>
-    <t>swjl_7</t>
-  </si>
-  <si>
-    <t>棉签100支</t>
+    <t>"220000","30","棉签100支"</t>
+  </si>
+  <si>
+    <t>"swjl_7",</t>
+  </si>
+  <si>
+    <t>"棉签100支",</t>
   </si>
   <si>
     <r>
@@ -485,55 +485,25 @@
     </r>
   </si>
   <si>
-    <t>150000,20,</t>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>"150000","20",</t>
   </si>
   <si>
     <t>在商城中购买3次6元</t>
   </si>
   <si>
-    <t>80000,10,</t>
-  </si>
-  <si>
-    <t>"swjl_1",</t>
+    <t>"80000","10",</t>
   </si>
   <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
-    <t>"swjl_2",</t>
-  </si>
-  <si>
     <t>"不锈钢绞肉机",</t>
   </si>
   <si>
-    <t>"swjl_3",</t>
-  </si>
-  <si>
-    <t>"豪华坚果礼包",</t>
-  </si>
-  <si>
-    <t>"swjl_4",</t>
-  </si>
-  <si>
-    <t>"玉米热狗肠20支",</t>
-  </si>
-  <si>
-    <t>"swjl_5",</t>
-  </si>
-  <si>
-    <t>"卫龙亲嘴烧30袋",</t>
-  </si>
-  <si>
-    <t>"swjl_6",</t>
-  </si>
-  <si>
     <t>"手帕纸10包",</t>
-  </si>
-  <si>
-    <t>"swjl_7",</t>
-  </si>
-  <si>
-    <t>"棉签100支",</t>
   </si>
 </sst>
 </file>
@@ -543,8 +513,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -591,14 +561,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -607,14 +569,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -622,14 +576,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,39 +598,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +607,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,9 +629,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,12 +644,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -797,55 +767,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +893,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,91 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,11 +952,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,20 +984,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,36 +1021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1079,151 +1029,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1264,10 +1234,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
@@ -2011,10 +1981,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22:L28"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2698,13 +2668,13 @@
       <c r="F22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="13"/>
       <c r="L22" s="2" t="s">
         <v>97</v>
       </c>
@@ -2732,13 +2702,13 @@
       <c r="F23" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="13"/>
       <c r="L23" s="2" t="s">
         <v>102</v>
       </c>
@@ -2766,13 +2736,13 @@
       <c r="F24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="3" t="s">
         <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="13"/>
       <c r="L24" s="12" t="s">
         <v>107</v>
       </c>
@@ -2800,13 +2770,13 @@
       <c r="F25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="3" t="s">
         <v>111</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="13"/>
       <c r="L25" s="2" t="s">
         <v>112</v>
       </c>
@@ -2833,13 +2803,13 @@
       <c r="F26" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="3" t="s">
         <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="I26" s="13"/>
       <c r="L26" s="2" t="s">
         <v>117</v>
       </c>
@@ -2866,13 +2836,13 @@
       <c r="F27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="3" t="s">
         <v>121</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="14"/>
+      <c r="I27" s="13"/>
       <c r="L27" s="2" t="s">
         <v>122</v>
       </c>
@@ -2899,7 +2869,7 @@
       <c r="F28" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2930,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="13" t="s">
         <v>130</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>96</v>
@@ -2951,16 +2921,16 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>96</v>
@@ -2968,386 +2938,386 @@
       <c r="I30" s="17"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:15">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="D31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:15">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="D32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="17"/>
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="D33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="17"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="14"/>
+      <c r="A34" s="13"/>
       <c r="D34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="D35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="17"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:9">
-      <c r="A36" s="14"/>
+      <c r="A36" s="13"/>
       <c r="D36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:9">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="D37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="14"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="14"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="14"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="14"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="14"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="14"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="14"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="14"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="14"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="14"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="14"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="14"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="19"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="14"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="19"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="14"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="19"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="14"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="19"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="14"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="19"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="14"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="19"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="14"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="19"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="14"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="14"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="19"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="14"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="14"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="14"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="19"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="14"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="19"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="14"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="14"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="19"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="14"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="19"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="14"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="19"/>
       <c r="L91" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="14"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="19"/>
       <c r="L92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="14"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="19"/>
       <c r="L93" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="14"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="19"/>
       <c r="L94" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="14"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="14"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="14"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="14"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="19"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="14"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="19"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="14"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="19"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="14"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="19"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="14"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="19"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="14"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="19"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="14"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="19"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="14"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="14"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="19"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="14"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="19"/>
     </row>
   </sheetData>
